--- a/BIPE.xlsx
+++ b/BIPE.xlsx
@@ -69,7 +69,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,8 +79,14 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -131,7 +137,7 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -460,7 +466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3">
         <v>1024536543</v>
       </c>
@@ -468,7 +474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3">
         <v>1067558615</v>
       </c>
@@ -476,7 +482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3">
         <v>1076237885</v>
       </c>
@@ -484,7 +490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3">
         <v>1097441494</v>
       </c>
@@ -492,7 +498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="3">
         <v>1110702708</v>
       </c>
@@ -500,7 +506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="3">
         <v>1110702708</v>
       </c>
@@ -508,7 +514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="3">
         <v>1113083393</v>
       </c>
@@ -516,7 +522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="3">
         <v>1114220639</v>
       </c>
@@ -524,7 +530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="3">
         <v>1114223970</v>
       </c>
@@ -532,7 +538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="3">
         <v>1114716002</v>
       </c>
@@ -540,7 +546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="3">
         <v>1115204701</v>
       </c>
@@ -548,7 +554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="3">
         <v>1115204701</v>
       </c>
@@ -556,7 +562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="3">
         <v>1115359467</v>
       </c>
@@ -564,7 +570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="3">
         <v>1115359467</v>
       </c>
@@ -572,7 +578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="3">
         <v>1115433135</v>
       </c>
@@ -580,7 +586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="3">
         <v>1115434554</v>
       </c>
@@ -588,7 +594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="3">
         <v>1115595179</v>
       </c>
@@ -596,7 +602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="3">
         <v>1115595179</v>
       </c>
@@ -604,7 +610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="3">
         <v>1115595179</v>
       </c>
@@ -612,7 +618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="3">
         <v>1115595179</v>
       </c>
@@ -620,7 +626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="3">
         <v>1115595179</v>
       </c>
@@ -628,7 +634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="3">
         <v>1115840921</v>
       </c>
@@ -636,7 +642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="3">
         <v>1115909402</v>
       </c>
@@ -644,7 +650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="3">
         <v>1116234124</v>
       </c>
@@ -652,7 +658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="3">
         <v>1116245093</v>
       </c>
@@ -660,7 +666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="3">
         <v>1116498391</v>
       </c>
@@ -668,7 +674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="3">
         <v>1116591258</v>
       </c>
@@ -676,7 +682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="3">
         <v>1116837496</v>
       </c>
@@ -684,7 +690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="3">
         <v>1116943956</v>
       </c>
@@ -692,7 +698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="3">
         <v>1117058498</v>
       </c>
@@ -700,7 +706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="3">
         <v>1117442197</v>
       </c>
